--- a/SP500.xlsx
+++ b/SP500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julesgaujard/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17540395-90BF-0F4C-A7D9-A2EFD0B84B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A47B14-E213-E64E-8D77-3C946A326A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{420795C9-7DEA-A84E-B419-B17B53A724A4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -100,7 +100,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3857,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF7FB3A-D9BB-2C4A-AC8A-7A9122777943}">
   <dimension ref="A1:B664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A625" workbookViewId="0">
-      <selection activeCell="A664" sqref="A664"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
